--- a/Summaries/D1/Wolfsburg_St Pauli_adv.xlsx
+++ b/Summaries/D1/Wolfsburg_St Pauli_adv.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
   <si>
     <t>Div</t>
   </si>
@@ -293,34 +293,37 @@
     <t>D1</t>
   </si>
   <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
     <t>RB Leipzig</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Bochum</t>
   </si>
   <si>
     <t>Freiburg</t>
   </si>
   <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
     <t>Dortmund</t>
   </si>
   <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -329,115 +332,100 @@
     <t>H</t>
   </si>
   <si>
-    <t>0-3</t>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>2-0</t>
   </si>
   <si>
     <t>1-2</t>
   </si>
   <si>
-    <t>1-0</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-1</t>
+    <t>1-1</t>
   </si>
   <si>
     <t>0-2</t>
   </si>
   <si>
-    <t>7-3</t>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>7-5</t>
   </si>
   <si>
     <t>3-5</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>9-1</t>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>RB Leipzig-Wolfsburg</t>
-  </si>
-  <si>
-    <t>Wolfsburg-Mainz</t>
-  </si>
-  <si>
-    <t>Freiburg-Wolfsburg</t>
-  </si>
-  <si>
-    <t>Wolfsburg-Dortmund</t>
-  </si>
-  <si>
-    <t>St Pauli-Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Leverkusen-St Pauli</t>
-  </si>
-  <si>
-    <t>St Pauli-Werder Bremen</t>
-  </si>
-  <si>
-    <t>Stuttgart-St Pauli</t>
-  </si>
-  <si>
-    <t>Martin Petersen</t>
+    <t>Wolfsburg-Leverkusen</t>
+  </si>
+  <si>
+    <t>Stuttgart-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Bochum</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Wolfsburg</t>
+  </si>
+  <si>
+    <t>RB Leipzig-St Pauli</t>
+  </si>
+  <si>
+    <t>St Pauli-Freiburg</t>
+  </si>
+  <si>
+    <t>Mainz-St Pauli</t>
+  </si>
+  <si>
+    <t>St Pauli-Dortmund</t>
+  </si>
+  <si>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Tobias Welz</t>
   </si>
   <si>
     <t>Timo Gerach</t>
   </si>
   <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
-    <t>Matthias Jöllenbeck</t>
+    <t>Felix Brych</t>
+  </si>
+  <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
   </si>
   <si>
     <t>Felix Zwayer</t>
   </si>
   <si>
-    <t>Robert Hartmann</t>
-  </si>
-  <si>
-    <t>Felix Brych</t>
+    <t>Tobias Stieler</t>
   </si>
 </sst>
 </file>
@@ -752,19 +740,19 @@
         <v>92</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>45626.0</v>
+        <v>45696.0</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="s">
         <v>103</v>
@@ -773,154 +761,154 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="s">
         <v>103</v>
       </c>
       <c r="L2" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="M2" t="n">
-        <v>4.17</v>
+        <v>3.86</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>1.84</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>9.0</v>
       </c>
-      <c r="R2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="AA2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>8.0</v>
       </c>
-      <c r="U2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.0</v>
-      </c>
       <c r="AC2" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AG2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AH2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AI2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AK2" t="n">
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AM2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>261.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>71.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>2130.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>426.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>710.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>2610.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="BC2" t="n">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BH2" t="n">
         <v>0.0</v>
@@ -929,7 +917,7 @@
         <v>0.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BK2" t="n">
         <v>1.0</v>
@@ -941,61 +929,61 @@
         <v>0.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="BR2" t="n">
         <v>10.0</v>
       </c>
       <c r="BS2" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="BT2" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="BU2" t="n">
-        <v>78.0</v>
+        <v>172.0</v>
       </c>
       <c r="BV2" t="n">
         <v>0.0</v>
       </c>
       <c r="BW2" t="n">
-        <v>57.0</v>
+        <v>129.0</v>
       </c>
       <c r="BX2" t="n">
         <v>0.0</v>
       </c>
       <c r="BY2" t="n">
-        <v>78.0</v>
+        <v>172.0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>57.0</v>
+        <v>129.0</v>
       </c>
       <c r="CA2" t="n">
-        <v>135.0</v>
+        <v>301.0</v>
       </c>
       <c r="CB2" t="n">
-        <v>26.0</v>
+        <v>75.0</v>
       </c>
       <c r="CC2" t="n">
-        <v>57.0</v>
+        <v>15.0</v>
       </c>
       <c r="CD2" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="CE2" t="n">
         <v>0.0</v>
       </c>
       <c r="CF2" t="n">
-        <v>135.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="3">
@@ -1006,58 +994,58 @@
         <v>92</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>45634.0</v>
+        <v>45703.0</v>
       </c>
       <c r="D3" t="s">
         <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" t="s">
         <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="s">
         <v>103</v>
       </c>
       <c r="L3" t="n">
-        <v>2.15</v>
+        <v>1.76</v>
       </c>
       <c r="M3" t="n">
-        <v>3.34</v>
+        <v>4.24</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>4.32</v>
       </c>
       <c r="O3" t="s">
         <v>106</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q3" t="n">
         <v>10.0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="S3" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U3" t="n">
         <v>3.0</v>
@@ -1072,7 +1060,7 @@
         <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z3" t="n">
         <v>5.0</v>
@@ -1084,25 +1072,25 @@
         <v>15.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE3" t="n">
         <v>25.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AG3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AH3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AI3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
         <v>7.0</v>
@@ -1111,19 +1099,19 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AM3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AN3" t="n">
-        <v>366.0</v>
+        <v>236.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>111.0</v>
+        <v>31.0</v>
       </c>
       <c r="AQ3" t="n">
         <v>70.0</v>
@@ -1132,49 +1120,49 @@
         <v>1200.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>490.0</v>
+        <v>210.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>560.0</v>
+        <v>840.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>7770.0</v>
+        <v>2170.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>56.0</v>
+        <v>36.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>777.0</v>
+        <v>93.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>888.0</v>
+        <v>372.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>2928.0</v>
+        <v>2832.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3920.0</v>
+        <v>2520.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="BC3" t="n">
-        <v>19.0</v>
+        <v>72.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>11.0</v>
+        <v>77.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>11.0</v>
+        <v>72.0</v>
       </c>
       <c r="BF3" t="n">
         <v>2.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH3" t="n">
         <v>0.0</v>
@@ -1198,10 +1186,10 @@
         <v>20.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="BQ3" t="n">
         <v>10.0</v>
@@ -1213,43 +1201,43 @@
         <v>30.0</v>
       </c>
       <c r="BT3" t="n">
-        <v>1200.0</v>
+        <v>900.0</v>
       </c>
       <c r="BU3" t="n">
-        <v>111.0</v>
+        <v>188.0</v>
       </c>
       <c r="BV3" t="n">
         <v>0.0</v>
       </c>
       <c r="BW3" t="n">
-        <v>237.0</v>
+        <v>177.0</v>
       </c>
       <c r="BX3" t="n">
         <v>0.0</v>
       </c>
       <c r="BY3" t="n">
-        <v>111.0</v>
+        <v>188.0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>237.0</v>
+        <v>177.0</v>
       </c>
       <c r="CA3" t="n">
-        <v>348.0</v>
+        <v>365.0</v>
       </c>
       <c r="CB3" t="n">
-        <v>21.0</v>
+        <v>46.0</v>
       </c>
       <c r="CC3" t="n">
-        <v>43.0</v>
+        <v>8.0</v>
       </c>
       <c r="CD3" t="n">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF3" t="n">
-        <v>164.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="4">
@@ -1260,64 +1248,64 @@
         <v>92</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>45639.0</v>
+        <v>45710.0</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L4" t="n">
-        <v>2.26</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
-        <v>3.45</v>
+        <v>4.53</v>
       </c>
       <c r="N4" t="n">
-        <v>3.38</v>
+        <v>5.71</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="S4" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="T4" t="n">
         <v>5.0</v>
       </c>
       <c r="U4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="W4" t="n">
         <v>0.0</v>
@@ -1326,37 +1314,37 @@
         <v>0.0</v>
       </c>
       <c r="Y4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>5.0</v>
       </c>
-      <c r="Z4" t="n">
-        <v>6.0</v>
-      </c>
       <c r="AA4" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AG4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AH4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AI4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
         <v>5.0</v>
@@ -1365,70 +1353,70 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AM4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AN4" t="n">
-        <v>312.0</v>
+        <v>131.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>127.0</v>
+        <v>36.0</v>
       </c>
       <c r="AQ4" t="n">
         <v>50.0</v>
       </c>
       <c r="AR4" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AT4" t="n">
         <v>400.0</v>
       </c>
-      <c r="AS4" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>550.0</v>
-      </c>
       <c r="AU4" t="n">
-        <v>6350.0</v>
+        <v>1800.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>55.0</v>
+        <v>16.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>635.0</v>
+        <v>72.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>1397.0</v>
+        <v>288.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>3432.0</v>
+        <v>1048.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2750.0</v>
+        <v>800.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="BC4" t="n">
-        <v>42.0</v>
+        <v>81.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>75.0</v>
+        <v>49.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH4" t="n">
         <v>0.0</v>
@@ -1440,7 +1428,7 @@
         <v>2.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BL4" t="n">
         <v>0.0</v>
@@ -1449,61 +1437,61 @@
         <v>0.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="BQ4" t="n">
         <v>20.0</v>
       </c>
       <c r="BR4" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="BS4" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="BT4" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="BU4" t="n">
-        <v>214.0</v>
+        <v>152.0</v>
       </c>
       <c r="BV4" t="n">
         <v>0.0</v>
       </c>
       <c r="BW4" t="n">
-        <v>87.0</v>
+        <v>169.0</v>
       </c>
       <c r="BX4" t="n">
         <v>0.0</v>
       </c>
       <c r="BY4" t="n">
-        <v>214.0</v>
+        <v>152.0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>87.0</v>
+        <v>169.0</v>
       </c>
       <c r="CA4" t="n">
-        <v>301.0</v>
+        <v>321.0</v>
       </c>
       <c r="CB4" t="n">
-        <v>22.0</v>
+        <v>66.0</v>
       </c>
       <c r="CC4" t="n">
-        <v>87.0</v>
+        <v>7.0</v>
       </c>
       <c r="CD4" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="CE4" t="n">
         <v>0.0</v>
       </c>
       <c r="CF4" t="n">
-        <v>133.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="5">
@@ -1514,169 +1502,169 @@
         <v>92</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>45648.0</v>
+        <v>45717.0</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
       </c>
       <c r="G5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.0</v>
       </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="U5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>3.0</v>
       </c>
-      <c r="K5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="AD5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>3.0</v>
       </c>
-      <c r="V5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4.0</v>
-      </c>
       <c r="AP5" t="n">
-        <v>63.0</v>
+        <v>86.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>75.0</v>
+        <v>20.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>1350.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>300.0</v>
+        <v>60.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1050.0</v>
+        <v>200.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>4725.0</v>
+        <v>1720.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>56.0</v>
+        <v>30.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>252.0</v>
+        <v>258.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>882.0</v>
+        <v>860.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1974.0</v>
+        <v>1440.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4200.0</v>
+        <v>600.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="BC5" t="n">
-        <v>58.0</v>
+        <v>90.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="BF5" t="n">
         <v>0.0</v>
@@ -1691,16 +1679,16 @@
         <v>0.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL5" t="n">
         <v>0.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN5" t="n">
         <v>0.0</v>
@@ -1712,52 +1700,52 @@
         <v>0.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="BR5" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>75.0</v>
+        <v>20.0</v>
       </c>
       <c r="BT5" t="n">
         <v>0.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>175.0</v>
+        <v>161.0</v>
       </c>
       <c r="BV5" t="n">
         <v>0.0</v>
       </c>
       <c r="BW5" t="n">
-        <v>157.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX5" t="n">
-        <v>124.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY5" t="n">
-        <v>175.0</v>
+        <v>161.0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>281.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>456.0</v>
+        <v>161.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>63.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD5" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="CE5" t="n">
         <v>0.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>142.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
@@ -1768,175 +1756,175 @@
         <v>92</v>
       </c>
       <c r="C6" t="n" s="2">
-        <v>45625.0</v>
+        <v>45697.0</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" t="n">
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>3.83</v>
+        <v>4.39</v>
       </c>
       <c r="N6" t="n">
-        <v>5.22</v>
+        <v>5.81</v>
       </c>
       <c r="O6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="n">
         <v>11.0</v>
       </c>
       <c r="R6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T6" t="n">
         <v>4.0</v>
       </c>
-      <c r="S6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.0</v>
-      </c>
       <c r="U6" t="n">
         <v>2.0</v>
       </c>
       <c r="V6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>5.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4.0</v>
       </c>
       <c r="Z6" t="n">
         <v>4.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>4.0</v>
       </c>
-      <c r="AD6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7.0</v>
-      </c>
       <c r="AK6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AM6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AN6" t="n">
-        <v>256.0</v>
+        <v>51.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>61.0</v>
+        <v>40.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1000.0</v>
+        <v>900.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>280.0</v>
+        <v>130.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>560.0</v>
+        <v>585.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>4270.0</v>
+        <v>2600.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>32.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>244.0</v>
+        <v>80.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>488.0</v>
+        <v>360.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>2048.0</v>
+        <v>459.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2240.0</v>
+        <v>1170.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="BC6" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>91.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="BF6" t="n">
         <v>1.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH6" t="n">
         <v>0.0</v>
@@ -1951,7 +1939,7 @@
         <v>1.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM6" t="n">
         <v>0.0</v>
@@ -1960,58 +1948,58 @@
         <v>10.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>10.0</v>
+        <v>35.0</v>
       </c>
       <c r="BR6" t="n">
         <v>10.0</v>
       </c>
       <c r="BS6" t="n">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="BT6" t="n">
-        <v>1000.0</v>
+        <v>900.0</v>
       </c>
       <c r="BU6" t="n">
-        <v>124.0</v>
+        <v>67.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0</v>
+        <v>138.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>202.0</v>
+        <v>69.0</v>
       </c>
       <c r="BX6" t="n">
         <v>0.0</v>
       </c>
       <c r="BY6" t="n">
-        <v>124.0</v>
+        <v>205.0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>202.0</v>
+        <v>69.0</v>
       </c>
       <c r="CA6" t="n">
-        <v>326.0</v>
+        <v>274.0</v>
       </c>
       <c r="CB6" t="n">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC6" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="CD6" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF6" t="n">
-        <v>129.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="7">
@@ -2022,16 +2010,16 @@
         <v>92</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>45633.0</v>
+        <v>45703.0</v>
       </c>
       <c r="D7" t="s">
         <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -2040,37 +2028,37 @@
         <v>104</v>
       </c>
       <c r="I7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n">
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>2.6</v>
       </c>
       <c r="M7" t="n">
-        <v>6.76</v>
+        <v>3.25</v>
       </c>
       <c r="N7" t="n">
-        <v>11.47</v>
+        <v>2.94</v>
       </c>
       <c r="O7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12.0</v>
       </c>
       <c r="T7" t="n">
         <v>4.0</v>
@@ -2079,7 +2067,7 @@
         <v>1.0</v>
       </c>
       <c r="V7" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
@@ -2088,109 +2076,109 @@
         <v>0.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB7" t="n">
         <v>10.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AH7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK7" t="n">
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AM7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AN7" t="n">
-        <v>111.0</v>
+        <v>88.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>43.0</v>
+        <v>23.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>120.0</v>
+        <v>10.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>440.0</v>
+        <v>80.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>1720.0</v>
+        <v>230.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>129.0</v>
+        <v>23.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>473.0</v>
+        <v>184.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>1221.0</v>
+        <v>704.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1320.0</v>
+        <v>80.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="BC7" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>84.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH7" t="n">
         <v>0.0</v>
@@ -2199,10 +2187,10 @@
         <v>0.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL7" t="n">
         <v>0.0</v>
@@ -2211,61 +2199,61 @@
         <v>0.0</v>
       </c>
       <c r="BN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ7" t="n">
         <v>10.0</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS7" t="n">
         <v>10.0</v>
       </c>
-      <c r="BP7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>20.0</v>
-      </c>
       <c r="BT7" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="BU7" t="n">
-        <v>28.0</v>
+        <v>63.0</v>
       </c>
       <c r="BV7" t="n">
         <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>205.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX7" t="n">
         <v>0.0</v>
       </c>
       <c r="BY7" t="n">
-        <v>28.0</v>
+        <v>63.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>205.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA7" t="n">
-        <v>233.0</v>
+        <v>63.0</v>
       </c>
       <c r="CB7" t="n">
-        <v>28.0</v>
+        <v>63.0</v>
       </c>
       <c r="CC7" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD7" t="n">
-        <v>28.0</v>
+        <v>63.0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF7" t="n">
-        <v>98.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="8">
@@ -2276,61 +2264,61 @@
         <v>92</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>45640.0</v>
+        <v>45710.0</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="s">
         <v>103</v>
       </c>
       <c r="L8" t="n">
-        <v>2.69</v>
+        <v>1.79</v>
       </c>
       <c r="M8" t="n">
-        <v>3.36</v>
+        <v>3.66</v>
       </c>
       <c r="N8" t="n">
-        <v>2.75</v>
+        <v>4.88</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="S8" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V8" t="n">
         <v>3.0</v>
@@ -2342,109 +2330,109 @@
         <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z8" t="n">
         <v>5.0</v>
       </c>
       <c r="AA8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>10.0</v>
       </c>
-      <c r="AB8" t="n">
-        <v>9.0</v>
-      </c>
       <c r="AC8" t="n">
         <v>2.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="AE8" t="n">
         <v>19.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AG8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AH8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AI8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AK8" t="n">
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AN8" t="n">
-        <v>78.0</v>
+        <v>157.0</v>
       </c>
       <c r="AO8" t="n">
         <v>2.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>100.0</v>
+        <v>120.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>450.0</v>
+        <v>660.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>1300.0</v>
+        <v>900.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>52.0</v>
+        <v>30.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>234.0</v>
+        <v>165.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>702.0</v>
+        <v>1727.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>900.0</v>
+        <v>1320.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>24.0</v>
+        <v>67.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH8" t="n">
         <v>0.0</v>
@@ -2456,7 +2444,7 @@
         <v>2.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BL8" t="n">
         <v>0.0</v>
@@ -2465,61 +2453,61 @@
         <v>0.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="BQ8" t="n">
         <v>20.0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BS8" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="BT8" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="BU8" t="n">
-        <v>128.0</v>
+        <v>155.0</v>
       </c>
       <c r="BV8" t="n">
         <v>0.0</v>
       </c>
       <c r="BW8" t="n">
-        <v>63.0</v>
+        <v>183.0</v>
       </c>
       <c r="BX8" t="n">
         <v>0.0</v>
       </c>
       <c r="BY8" t="n">
-        <v>128.0</v>
+        <v>155.0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>63.0</v>
+        <v>183.0</v>
       </c>
       <c r="CA8" t="n">
-        <v>191.0</v>
+        <v>338.0</v>
       </c>
       <c r="CB8" t="n">
-        <v>63.0</v>
+        <v>18.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>8.0</v>
+        <v>24.0</v>
       </c>
       <c r="CD8" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="CE8" t="n">
         <v>0.0</v>
       </c>
       <c r="CF8" t="n">
-        <v>82.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="9">
@@ -2530,169 +2518,169 @@
         <v>92</v>
       </c>
       <c r="C9" t="n" s="2">
-        <v>45647.0</v>
+        <v>45717.0</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="s">
         <v>103</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>4.31</v>
       </c>
       <c r="M9" t="n">
-        <v>4.73</v>
+        <v>3.73</v>
       </c>
       <c r="N9" t="n">
-        <v>6.93</v>
+        <v>1.87</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="R9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="S9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>11.0</v>
       </c>
-      <c r="T9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10.0</v>
-      </c>
       <c r="AB9" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AH9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK9" t="n">
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AN9" t="n">
-        <v>21.0</v>
+        <v>108.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>11.0</v>
+        <v>36.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>400.0</v>
+        <v>240.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>440.0</v>
+        <v>1080.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>11.0</v>
+        <v>72.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>110.0</v>
+        <v>288.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>210.0</v>
+        <v>864.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>400.0</v>
+        <v>480.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="BC9" t="n">
         <v>0.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>21.0</v>
+        <v>50.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>21.0</v>
+        <v>50.0</v>
       </c>
       <c r="BF9" t="n">
         <v>0.0</v>
@@ -2707,7 +2695,7 @@
         <v>0.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BK9" t="n">
         <v>1.0</v>
@@ -2728,52 +2716,52 @@
         <v>10.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="BR9" t="n">
         <v>10.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="BT9" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="BU9" t="n">
-        <v>170.0</v>
+        <v>79.0</v>
       </c>
       <c r="BV9" t="n">
         <v>0.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>129.0</v>
+        <v>95.0</v>
       </c>
       <c r="BX9" t="n">
         <v>0.0</v>
       </c>
       <c r="BY9" t="n">
-        <v>170.0</v>
+        <v>79.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>129.0</v>
+        <v>95.0</v>
       </c>
       <c r="CA9" t="n">
-        <v>299.0</v>
+        <v>174.0</v>
       </c>
       <c r="CB9" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>46.0</v>
+        <v>13.0</v>
       </c>
       <c r="CD9" t="n">
-        <v>46.0</v>
+        <v>13.0</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>75.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="10">
@@ -2784,175 +2772,175 @@
         <v>92</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>45647.0</v>
+        <v>45717.0</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="s">
         <v>103</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>4.31</v>
       </c>
       <c r="M10" t="n">
-        <v>4.73</v>
+        <v>3.73</v>
       </c>
       <c r="N10" t="n">
-        <v>6.93</v>
+        <v>1.87</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="S10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>11.0</v>
       </c>
-      <c r="T10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10.0</v>
-      </c>
       <c r="AB10" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AG10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AH10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AI10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AN10" t="n">
-        <v>193.25</v>
+        <v>114.375</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.0</v>
+        <v>1.875</v>
       </c>
       <c r="AP10" t="n">
-        <v>64.125</v>
+        <v>33.375</v>
       </c>
       <c r="AQ10" t="n">
-        <v>53.125</v>
+        <v>44.375</v>
       </c>
       <c r="AR10" t="n">
-        <v>681.25</v>
+        <v>550.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>220.0</v>
+        <v>86.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>538.75</v>
+        <v>450.625</v>
       </c>
       <c r="AU10" t="n">
-        <v>3588.125</v>
+        <v>1312.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>40.0</v>
+        <v>18.25</v>
       </c>
       <c r="AW10" t="n">
-        <v>315.75</v>
+        <v>78.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>647.75</v>
+        <v>314.625</v>
       </c>
       <c r="AY10" t="n">
-        <v>1890.625</v>
+        <v>1134.25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2191.25</v>
+        <v>871.25</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.3375</v>
+        <v>1.0375</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.9375</v>
+        <v>1.1125</v>
       </c>
       <c r="BC10" t="n">
-        <v>29.0</v>
+        <v>40.75</v>
       </c>
       <c r="BD10" t="n">
-        <v>41.875</v>
+        <v>22.75</v>
       </c>
       <c r="BE10" t="n">
-        <v>19.75</v>
+        <v>32.5</v>
       </c>
       <c r="BF10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BG10" t="n">
         <v>0.875</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>1.375</v>
       </c>
       <c r="BH10" t="n">
         <v>0.0</v>
@@ -2964,70 +2952,70 @@
         <v>1.5</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO10" t="n">
         <v>8.75</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BP10" t="n">
         <v>13.75</v>
       </c>
-      <c r="BP10" t="n">
-        <v>22.5</v>
-      </c>
       <c r="BQ10" t="n">
-        <v>15.0</v>
+        <v>18.125</v>
       </c>
       <c r="BR10" t="n">
-        <v>15.625</v>
+        <v>11.25</v>
       </c>
       <c r="BS10" t="n">
-        <v>30.625</v>
+        <v>29.375</v>
       </c>
       <c r="BT10" t="n">
-        <v>537.5</v>
+        <v>475.0</v>
       </c>
       <c r="BU10" t="n">
-        <v>128.5</v>
+        <v>129.625</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0</v>
+        <v>17.25</v>
       </c>
       <c r="BW10" t="n">
-        <v>142.125</v>
+        <v>102.75</v>
       </c>
       <c r="BX10" t="n">
-        <v>15.5</v>
+        <v>0.0</v>
       </c>
       <c r="BY10" t="n">
-        <v>128.5</v>
+        <v>146.875</v>
       </c>
       <c r="BZ10" t="n">
-        <v>157.625</v>
+        <v>102.75</v>
       </c>
       <c r="CA10" t="n">
-        <v>286.125</v>
+        <v>249.625</v>
       </c>
       <c r="CB10" t="n">
-        <v>40.5</v>
+        <v>52.25</v>
       </c>
       <c r="CC10" t="n">
-        <v>45.5</v>
+        <v>9.75</v>
       </c>
       <c r="CD10" t="n">
-        <v>28.0</v>
+        <v>24.375</v>
       </c>
       <c r="CE10" t="n">
         <v>0.25</v>
       </c>
       <c r="CF10" t="n">
-        <v>119.75</v>
+        <v>82.375</v>
       </c>
     </row>
   </sheetData>
